--- a/src/site/resources/PROBE.xlsx
+++ b/src/site/resources/PROBE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PSP1.1 Project Plan Summary " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="170">
   <si>
     <t>Summary</t>
   </si>
@@ -566,9 +566,6 @@
     <t>Metodo C - Probe</t>
   </si>
   <si>
-    <t>Size Estimating Procedure 4C</t>
-  </si>
-  <si>
     <t>actual total added and modified size to date</t>
   </si>
   <si>
@@ -736,6 +733,12 @@
   </si>
   <si>
     <t>plan total added and modified time to date</t>
+  </si>
+  <si>
+    <t>Size Estimating Procedure 5C</t>
+  </si>
+  <si>
+    <t>Programa 5</t>
   </si>
 </sst>
 </file>
@@ -1099,8 +1102,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1425,17 +1432,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="15">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1908,7 +1919,7 @@
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="73">
-        <f>E15+'Probe - Sizes'!H6</f>
+        <f>E15+'Probe - Sizes'!I6</f>
         <v>323.86</v>
       </c>
       <c r="H15" s="70"/>
@@ -1947,7 +1958,7 @@
       </c>
       <c r="C18" s="84">
         <f>('Size Estimating Template '!E59/'Size Estimating Template '!E70)*100</f>
-        <v>36.050827429236193</v>
+        <v>39.298980261049252</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="84">
@@ -1968,7 +1979,7 @@
       </c>
       <c r="C19" s="84">
         <f>('Size Estimating Template '!K38/'Size Estimating Template '!E70)*100</f>
-        <v>2.8969414898493371</v>
+        <v>3.1579537709771723</v>
       </c>
       <c r="D19" s="70"/>
       <c r="E19" s="84">
@@ -2176,11 +2187,11 @@
     <row r="34" spans="2:11">
       <c r="B34" s="2"/>
       <c r="C34" s="87" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D34" s="72"/>
       <c r="E34" s="87" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F34" s="72"/>
       <c r="G34" s="95"/>
@@ -2283,7 +2294,7 @@
       </c>
       <c r="C41" s="73">
         <f>'Size Estimating Template '!E70</f>
-        <v>388.34060126582278</v>
+        <v>356.24334033613445</v>
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="73">
@@ -3853,7 +3864,7 @@
       <c r="D68" s="2"/>
       <c r="E68" s="60">
         <f>'Probe - Times'!D10</f>
-        <v>1.7262658227848102</v>
+        <v>1.5031512605042017</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="60">
@@ -3868,7 +3879,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="60">
         <f>E67+E68*E64</f>
-        <v>248.34060126582278</v>
+        <v>216.24334033613442</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="83"/>
@@ -3880,7 +3891,7 @@
       <c r="D70" s="2"/>
       <c r="E70" s="60">
         <f>E69+E17-G17-I17+E59</f>
-        <v>388.34060126582278</v>
+        <v>356.24334033613445</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="83"/>
@@ -3915,7 +3926,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="60">
@@ -3929,7 +3940,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="60">
@@ -3943,7 +3954,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="60">
@@ -3957,7 +3968,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="60">
@@ -4333,7 +4344,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D14" s="32">
         <v>41321.958333333336</v>
@@ -4345,10 +4356,10 @@
         <v>41322.041666666664</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="25">
@@ -4356,7 +4367,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D15" s="32">
         <v>41322.333333333336</v>
@@ -4368,10 +4379,10 @@
         <v>41322.4375</v>
       </c>
       <c r="G15" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="82" t="s">
         <v>159</v>
-      </c>
-      <c r="H15" s="82" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="16" spans="2:10">
@@ -4379,7 +4390,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="32">
         <v>41322.842361111114</v>
@@ -4391,10 +4402,10 @@
         <v>41322.945833333331</v>
       </c>
       <c r="G16" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="37">
@@ -4402,7 +4413,7 @@
         <v>90</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D17" s="32">
         <v>41322.842361111114</v>
@@ -4414,10 +4425,10 @@
         <v>41322.945833333331</v>
       </c>
       <c r="G17" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:8">
@@ -4562,10 +4573,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I23"/>
+  <dimension ref="B3:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4574,33 +4585,39 @@
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="15">
+    <row r="3" spans="2:10" ht="15">
       <c r="B3" s="59" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="2:9">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
       <c r="C4" s="35"/>
       <c r="D4" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="F4" s="63" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>137</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="2:9" ht="15">
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:10" ht="15">
       <c r="B5" s="34" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -4609,10 +4626,11 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="2:9">
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="2:10">
       <c r="C6" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" s="30">
         <v>0</v>
@@ -4623,16 +4641,19 @@
       <c r="F6" s="30">
         <v>480</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30">
+      <c r="G6" s="30">
+        <v>340</v>
+      </c>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30">
         <f>SUM(D6:G6)</f>
-        <v>1091</v>
-      </c>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:9">
+        <v>1431</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="C7" s="63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="30">
         <v>0</v>
@@ -4643,14 +4664,17 @@
       <c r="F7" s="30">
         <v>320</v>
       </c>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30">
+      <c r="G7" s="30">
+        <v>320</v>
+      </c>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30">
         <f>SUM(D7:G7)</f>
-        <v>632</v>
-      </c>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="2:9">
+        <v>952</v>
+      </c>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -4658,10 +4682,11 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="C9" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="30">
         <v>0</v>
@@ -4671,22 +4696,24 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="2:9" ht="27">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="2:10" ht="27">
       <c r="C10" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="62">
-        <f>H6/H7</f>
-        <v>1.7262658227848102</v>
+        <f>I6/I7</f>
+        <v>1.5031512605042017</v>
       </c>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -4694,13 +4721,15 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="23" ht="14.25" customHeight="1"/>
   </sheetData>
@@ -4716,10 +4745,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J23"/>
+  <dimension ref="B3:K23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4728,33 +4757,39 @@
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:11" ht="15">
       <c r="B3" s="59" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
       <c r="C4" s="35"/>
       <c r="D4" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="F4" s="63" t="s">
         <v>136</v>
-      </c>
-      <c r="F4" s="63" t="s">
-        <v>137</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>90</v>
       </c>
       <c r="H4" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="35"/>
-    </row>
-    <row r="5" spans="2:10" ht="15">
+      <c r="J4" s="35"/>
+    </row>
+    <row r="5" spans="2:11" ht="15">
       <c r="B5" s="34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -4763,10 +4798,11 @@
       <c r="G5" s="35"/>
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="J5" s="35"/>
+    </row>
+    <row r="6" spans="2:11">
       <c r="C6" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="30">
         <v>0</v>
@@ -4780,15 +4816,16 @@
       <c r="G6" s="30">
         <v>97</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="30"/>
+      <c r="I6" s="30">
         <f>SUM(D6:G6)</f>
         <v>314</v>
       </c>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="2:11">
       <c r="C7" s="63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="30">
         <v>0</v>
@@ -4802,13 +4839,14 @@
       <c r="G7" s="30">
         <v>90</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30">
         <f>SUM(D7:G7)</f>
         <v>270</v>
       </c>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="2:11">
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -4816,10 +4854,11 @@
       <c r="G8" s="35"/>
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="C9" s="61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D9" s="30">
         <v>0</v>
@@ -4829,13 +4868,14 @@
       <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="2:10" ht="40">
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="2:11" ht="40">
       <c r="C10" s="61" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" s="62">
-        <f>H6/H7</f>
+        <f>I6/I7</f>
         <v>1.162962962962963</v>
       </c>
       <c r="E10" s="35"/>
@@ -4843,8 +4883,9 @@
       <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="2:11">
       <c r="C11" s="35"/>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -4852,15 +4893,17 @@
       <c r="G11" s="35"/>
       <c r="H11" s="35"/>
       <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="2:11">
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="2:11">
       <c r="B13" s="104"/>
       <c r="C13" s="105"/>
       <c r="D13" s="107"/>
@@ -4868,10 +4911,11 @@
       <c r="F13" s="107"/>
       <c r="G13" s="107"/>
       <c r="H13" s="107"/>
-      <c r="I13" s="104"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="104"/>
-    </row>
-    <row r="14" spans="2:10" ht="15">
+      <c r="K13" s="104"/>
+    </row>
+    <row r="14" spans="2:11" ht="15">
       <c r="B14" s="106"/>
       <c r="C14" s="105"/>
       <c r="D14" s="105"/>
@@ -4879,10 +4923,11 @@
       <c r="F14" s="105"/>
       <c r="G14" s="105"/>
       <c r="H14" s="105"/>
-      <c r="I14" s="104"/>
+      <c r="I14" s="105"/>
       <c r="J14" s="104"/>
-    </row>
-    <row r="15" spans="2:10" ht="15">
+      <c r="K14" s="104"/>
+    </row>
+    <row r="15" spans="2:11" ht="15">
       <c r="B15" s="104"/>
       <c r="C15" s="106"/>
       <c r="D15" s="105"/>
@@ -4890,10 +4935,11 @@
       <c r="F15" s="105"/>
       <c r="G15" s="105"/>
       <c r="H15" s="105"/>
-      <c r="I15" s="104"/>
+      <c r="I15" s="105"/>
       <c r="J15" s="104"/>
-    </row>
-    <row r="16" spans="2:10" ht="15">
+      <c r="K15" s="104"/>
+    </row>
+    <row r="16" spans="2:11" ht="15">
       <c r="B16" s="104"/>
       <c r="C16" s="106"/>
       <c r="D16" s="105"/>
@@ -4901,10 +4947,11 @@
       <c r="F16" s="105"/>
       <c r="G16" s="105"/>
       <c r="H16" s="105"/>
-      <c r="I16" s="104"/>
+      <c r="I16" s="105"/>
       <c r="J16" s="104"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="K16" s="104"/>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17" s="104"/>
       <c r="C17" s="105"/>
       <c r="D17" s="105"/>
@@ -4912,10 +4959,11 @@
       <c r="F17" s="105"/>
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
-      <c r="I17" s="104"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="104"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="K17" s="104"/>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="104"/>
       <c r="C18" s="108"/>
       <c r="D18" s="105"/>
@@ -4923,10 +4971,11 @@
       <c r="F18" s="105"/>
       <c r="G18" s="105"/>
       <c r="H18" s="105"/>
-      <c r="I18" s="104"/>
+      <c r="I18" s="105"/>
       <c r="J18" s="104"/>
-    </row>
-    <row r="19" spans="2:10">
+      <c r="K18" s="104"/>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19" s="104"/>
       <c r="C19" s="108"/>
       <c r="D19" s="109"/>
@@ -4934,10 +4983,11 @@
       <c r="F19" s="105"/>
       <c r="G19" s="105"/>
       <c r="H19" s="105"/>
-      <c r="I19" s="104"/>
+      <c r="I19" s="105"/>
       <c r="J19" s="104"/>
-    </row>
-    <row r="20" spans="2:10">
+      <c r="K19" s="104"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="104"/>
       <c r="C20" s="104"/>
       <c r="D20" s="104"/>
@@ -4947,8 +4997,9 @@
       <c r="H20" s="104"/>
       <c r="I20" s="104"/>
       <c r="J20" s="104"/>
-    </row>
-    <row r="21" spans="2:10">
+      <c r="K20" s="104"/>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21" s="104"/>
       <c r="C21" s="104"/>
       <c r="D21" s="104"/>
@@ -4958,8 +5009,9 @@
       <c r="H21" s="104"/>
       <c r="I21" s="104"/>
       <c r="J21" s="104"/>
-    </row>
-    <row r="22" spans="2:10">
+      <c r="K21" s="104"/>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="104"/>
       <c r="C22" s="104"/>
       <c r="D22" s="104"/>
@@ -4969,8 +5021,9 @@
       <c r="H22" s="104"/>
       <c r="I22" s="104"/>
       <c r="J22" s="104"/>
-    </row>
-    <row r="23" spans="2:10" ht="14.25" customHeight="1"/>
+      <c r="K22" s="104"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5002,21 +5055,21 @@
         <v>6</v>
       </c>
       <c r="C3" s="65" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>136</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>137</v>
       </c>
       <c r="E3" s="65" t="s">
         <v>90</v>
       </c>
       <c r="F3" s="66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="67">
         <v>339</v>
@@ -5034,7 +5087,7 @@
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="67">
         <v>8</v>
@@ -5052,7 +5105,7 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="67">
         <f>C4/C5</f>
@@ -5073,18 +5126,18 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="64" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C10">
         <f>C13/C6</f>
@@ -5102,7 +5155,7 @@
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="64" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C11">
         <f>C13/D6</f>
@@ -5113,7 +5166,7 @@
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13">
         <v>143.86000000000001</v>
